--- a/biology/Zoologie/Hypotheridiosoma/Hypotheridiosoma.xlsx
+++ b/biology/Zoologie/Hypotheridiosoma/Hypotheridiosoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypotheridiosoma est un  genre fossile d'araignées aranéomorphes de la famille des Zarqaraneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypotheridiosoma est un  genre fossile d'araignées aranéomorphes de la famille des Zarqaraneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de Birmanie. Elles datent du Crétacé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de Birmanie. Elles datent du Crétacé.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The World Spider Catalog 19.5[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The World Spider Catalog 19.5 :
 †Hypotheridiosoma falcata Wunderlich, 2015
 †Hypotheridiosoma paracymbium Wunderlich, 2012</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Liste des genres de la famille Zarqaraneidae</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The World Spider Catalog 19.5[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The World Spider Catalog 19.5 :
 † Alteraraneus Wunderlich, 2018
 † Burmaforceps Wunderlich, 2018
 † Converszarqaraneus Wunderlich, 2018
@@ -619,7 +637,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wunderlich, 2012 : On the fossil spider (Araneae) fauna in Cretaceous ambers, with descriptions of new taxa from Myanmar (Burma) and Jordan, and on the relationships of the superfamily Leptonetoidea. Beiträge zur Araneologie, vol. 7, p. 157–232 (en).</t>
         </is>
